--- a/сводка.xlsx
+++ b/сводка.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
   <si>
     <t>Имя</t>
   </si>
@@ -38,22 +38,22 @@
     <t>03.04</t>
   </si>
   <si>
+    <t>03.27</t>
+  </si>
+  <si>
     <t>03.23</t>
   </si>
   <si>
-    <t>03.27</t>
-  </si>
-  <si>
     <t>03.28</t>
   </si>
   <si>
     <t>04.06</t>
   </si>
   <si>
+    <t>04.20</t>
+  </si>
+  <si>
     <t>04.16</t>
-  </si>
-  <si>
-    <t>04.20</t>
   </si>
   <si>
     <t>Владислав</t>
@@ -163,51 +163,63 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -222,11 +234,11 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
@@ -267,6 +279,18 @@
         <v>16</v>
       </c>
       <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -281,11 +305,11 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
@@ -326,6 +350,18 @@
         <v>16</v>
       </c>
       <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -340,11 +376,11 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -385,6 +421,18 @@
         <v>16</v>
       </c>
       <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -402,11 +450,11 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -444,6 +492,18 @@
         <v>16</v>
       </c>
       <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -458,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -494,16 +554,28 @@
         <v>16</v>
       </c>
       <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>22</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" t="s">
         <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -517,11 +589,11 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
@@ -562,6 +634,18 @@
         <v>16</v>
       </c>
       <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -576,11 +660,11 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
@@ -621,6 +705,18 @@
         <v>16</v>
       </c>
       <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" t="s">
         <v>16</v>
       </c>
     </row>
